--- a/paper/Workbook1.xlsx
+++ b/paper/Workbook1.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="0" windowWidth="19960" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="-24000" yWindow="80" windowWidth="24000" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>WET</t>
   </si>
@@ -66,9 +67,6 @@
     <t>K40 CUDA</t>
   </si>
   <si>
-    <t>K40 OMP4</t>
-  </si>
-  <si>
     <t>BW 44 cores</t>
   </si>
   <si>
@@ -78,9 +76,6 @@
     <t>CUDA 7.5</t>
   </si>
   <si>
-    <t>CRAY + CUDA 8.0</t>
-  </si>
-  <si>
     <t>CUDA 8.0</t>
   </si>
   <si>
@@ -88,6 +83,75 @@
   </si>
   <si>
     <t>HOT'N'WET</t>
+  </si>
+  <si>
+    <t>8 node</t>
+  </si>
+  <si>
+    <t>16 node</t>
+  </si>
+  <si>
+    <t>32 node</t>
+  </si>
+  <si>
+    <t>3 GPU</t>
+  </si>
+  <si>
+    <t>5 GPU</t>
+  </si>
+  <si>
+    <t>6 GPU</t>
+  </si>
+  <si>
+    <t>7 GPU</t>
+  </si>
+  <si>
+    <t>HOT N WET</t>
+  </si>
+  <si>
+    <t>BW 44</t>
+  </si>
+  <si>
+    <t>HSW 32</t>
+  </si>
+  <si>
+    <t>KNL</t>
+  </si>
+  <si>
+    <t>NVIDIA K20X</t>
+  </si>
+  <si>
+    <t>NVIDIA K40m</t>
+  </si>
+  <si>
+    <t>K80 CUDA</t>
+  </si>
+  <si>
+    <t>9 GPU</t>
+  </si>
+  <si>
+    <t>10 GPU</t>
+  </si>
+  <si>
+    <t>11 GPU</t>
+  </si>
+  <si>
+    <t>12 GPU</t>
+  </si>
+  <si>
+    <t>13 GPU</t>
+  </si>
+  <si>
+    <t>14 GPU</t>
+  </si>
+  <si>
+    <t>15 GPU</t>
+  </si>
+  <si>
+    <t>16 GPU</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -136,8 +200,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -148,13 +282,83 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,307 +688,887 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>113.72</v>
+      </c>
+      <c r="C4">
         <v>9.42</v>
-      </c>
-      <c r="C4">
-        <v>113.72</v>
       </c>
       <c r="D4">
         <v>123.33</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>58.27</v>
+      </c>
+      <c r="C5">
         <v>4.92</v>
-      </c>
-      <c r="C5">
-        <v>58.27</v>
       </c>
       <c r="D5">
         <v>63.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5">
+        <f>B4/B5</f>
+        <v>1.9516045992792173</v>
+      </c>
+      <c r="G5">
+        <f>C4/C5</f>
+        <v>1.9146341463414633</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5" si="0">D4/D5</f>
+        <v>1.9566872917658258</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>38.94</v>
+      </c>
+      <c r="C6">
         <v>3.3</v>
-      </c>
-      <c r="C6">
-        <v>38.94</v>
       </c>
       <c r="D6">
         <v>42.37</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6">
+        <f>B4/B6</f>
+        <v>2.9203903441191579</v>
+      </c>
+      <c r="G6">
+        <f>C4/C6</f>
+        <v>2.8545454545454545</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6" si="1">D4/D6</f>
+        <v>2.9107859334434742</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>27.64</v>
+      </c>
+      <c r="C7">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C7">
-        <v>27.64</v>
-      </c>
       <c r="D7">
-        <v>30.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>29.99</v>
+      </c>
+      <c r="F7">
+        <f>B4/B7</f>
+        <v>4.1143270622286536</v>
+      </c>
+      <c r="G7">
+        <f>C4/C7</f>
+        <v>3.8765432098765431</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7" si="2">D4/D7</f>
+        <v>4.1123707902634212</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>9.35</v>
+      </c>
+      <c r="C8">
+        <v>1.28</v>
+      </c>
+      <c r="D8">
+        <v>10.76</v>
+      </c>
+      <c r="F8">
+        <f>B4/B8</f>
+        <v>12.162566844919786</v>
+      </c>
+      <c r="G8">
+        <f>C4/C8</f>
+        <v>7.359375</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8" si="3">D4/D8</f>
+        <v>11.461895910780669</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2.27</v>
+      </c>
+      <c r="C9">
+        <v>0.45</v>
+      </c>
+      <c r="D9">
+        <v>2.85</v>
+      </c>
+      <c r="F9">
+        <f>B4/B9</f>
+        <v>50.096916299559467</v>
+      </c>
+      <c r="G9">
+        <f>C4/C9</f>
+        <v>20.933333333333334</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9" si="4">D4/D9</f>
+        <v>43.273684210526312</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1.75</v>
+      </c>
+      <c r="C10">
+        <v>0.24</v>
+      </c>
+      <c r="D10">
+        <v>1.96</v>
+      </c>
+      <c r="F10">
+        <f>B4/B10</f>
+        <v>64.982857142857142</v>
+      </c>
+      <c r="G10">
+        <f>C4/C10</f>
+        <v>39.25</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10" si="5">D4/D10</f>
+        <v>62.923469387755105</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>1.9260108378491039</v>
+      </c>
+      <c r="L12">
+        <v>2.736452472608824</v>
+      </c>
+      <c r="M12">
+        <v>3.6140007821666011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>85.04</v>
+      </c>
+      <c r="C13">
+        <v>7.45</v>
+      </c>
+      <c r="D13">
+        <v>92.41</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>44.16</v>
+      </c>
+      <c r="C14">
+        <v>3.85</v>
+      </c>
+      <c r="D14">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>31.08</v>
+      </c>
+      <c r="C15">
+        <v>2.71</v>
+      </c>
+      <c r="D15">
+        <v>33.770000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>23.52</v>
+      </c>
+      <c r="C16">
+        <v>2.04</v>
+      </c>
+      <c r="D16">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>109.67</v>
+      </c>
+      <c r="C21">
+        <v>7.92</v>
+      </c>
+      <c r="D21">
+        <v>117.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>53.47</v>
+      </c>
+      <c r="C22">
+        <v>4.12</v>
+      </c>
+      <c r="D22">
+        <v>57.73</v>
+      </c>
+      <c r="F22">
+        <f>B21/B22</f>
+        <v>2.0510566672900694</v>
+      </c>
+      <c r="G22">
+        <f>C21/C22</f>
+        <v>1.9223300970873787</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22" si="6">D21/D22</f>
+        <v>2.0417460592412957</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>37.19</v>
+      </c>
+      <c r="C23">
+        <v>2.91</v>
+      </c>
+      <c r="D23">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F23">
+        <f>B21/B23</f>
+        <v>2.9489109975799948</v>
+      </c>
+      <c r="G23">
+        <f>C21/C23</f>
+        <v>2.7216494845360821</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23" si="7">D21/D23</f>
+        <v>3.0457364341085271</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>27.9</v>
+      </c>
+      <c r="C24">
+        <v>2.13</v>
+      </c>
+      <c r="D24">
+        <v>29.2</v>
+      </c>
+      <c r="F24">
+        <f>B21/B24</f>
+        <v>3.9308243727598571</v>
+      </c>
+      <c r="G24">
+        <f>C21/C24</f>
+        <v>3.7183098591549295</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24" si="8">D21/D24</f>
+        <v>4.0366438356164389</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>6.65</v>
+      </c>
+      <c r="D27">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>54.54</v>
+      </c>
+      <c r="C28">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D28">
+        <v>93.46</v>
+      </c>
+      <c r="F28">
+        <f>$B$27/B28</f>
+        <v>1.4668133480014669</v>
+      </c>
+      <c r="G28">
+        <f>$C$27/C28</f>
+        <v>1.3825363825363828</v>
+      </c>
+      <c r="H28">
+        <f>$D$27/D28</f>
+        <v>0.92980954419002793</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>45.56</v>
+      </c>
+      <c r="C29">
+        <v>4.05</v>
+      </c>
+      <c r="D29">
+        <v>97.68</v>
+      </c>
+      <c r="F29">
+        <f>$B$27/B29</f>
+        <v>1.7559262510974538</v>
+      </c>
+      <c r="G29">
+        <f>$C$27/C29</f>
+        <v>1.6419753086419755</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H34" si="9">$D$27/D29</f>
+        <v>0.88963963963963966</v>
+      </c>
+      <c r="I29">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>7.45</v>
-      </c>
-      <c r="C10">
-        <v>85.04</v>
-      </c>
-      <c r="D10">
-        <v>92.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>3.85</v>
-      </c>
-      <c r="C11">
-        <v>44.16</v>
-      </c>
-      <c r="D11">
-        <v>47.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2.71</v>
-      </c>
-      <c r="C12">
-        <v>31.08</v>
-      </c>
-      <c r="D12">
-        <v>33.770000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>2.04</v>
-      </c>
-      <c r="C13">
-        <v>23.52</v>
-      </c>
-      <c r="D13">
-        <v>25.57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>7.92</v>
-      </c>
-      <c r="C16">
-        <v>109.67</v>
-      </c>
-      <c r="D16">
-        <v>117.87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4.12</v>
-      </c>
-      <c r="C17">
-        <v>53.47</v>
-      </c>
-      <c r="D17">
-        <v>57.73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>2.91</v>
-      </c>
-      <c r="C18">
-        <v>37.19</v>
-      </c>
-      <c r="D18">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>2.13</v>
-      </c>
-      <c r="C19">
-        <v>27.9</v>
-      </c>
-      <c r="D19">
-        <v>29.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23">
-        <v>4.8099999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>7.68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>5.58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
-        <v>3.18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>31.16</v>
+      </c>
+      <c r="C30">
+        <v>2.79</v>
+      </c>
+      <c r="D30">
+        <v>104.65</v>
+      </c>
+      <c r="F30">
+        <f>$B$27/B30</f>
+        <v>2.5673940949935816</v>
+      </c>
+      <c r="G30">
+        <f>$C$27/C30</f>
+        <v>2.3835125448028673</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>0.83038700430004775</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>28.48</v>
+      </c>
+      <c r="C31">
+        <v>2.58</v>
+      </c>
+      <c r="D31">
+        <v>107.3</v>
+      </c>
+      <c r="F31">
+        <f>$B$27/B31</f>
+        <v>2.8089887640449436</v>
+      </c>
+      <c r="G31">
+        <f>$C$27/C31</f>
+        <v>2.5775193798449614</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>0.80987884436160307</v>
+      </c>
+      <c r="I31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>23.86</v>
+      </c>
+      <c r="C32">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D32">
+        <v>114.56</v>
+      </c>
+      <c r="F32">
+        <f>$B$27/B32</f>
+        <v>3.3528918692372174</v>
+      </c>
+      <c r="G32">
+        <f>$C$27/C32</f>
+        <v>2.9424778761061949</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>0.75855446927374304</v>
+      </c>
+      <c r="I32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>21.86</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>113.44</v>
+      </c>
+      <c r="F33">
+        <f>$B$27/B33</f>
+        <v>3.6596523330283626</v>
+      </c>
+      <c r="G33">
+        <f>$C$27/C33</f>
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="9"/>
+        <v>0.76604372355430195</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B31">
-        <v>2.0499999999999998</v>
+      <c r="B34">
+        <v>17.739999999999998</v>
+      </c>
+      <c r="C34">
+        <v>1.9</v>
+      </c>
+      <c r="D34">
+        <v>124.02</v>
+      </c>
+      <c r="F34">
+        <f>$B$27/B34</f>
+        <v>4.509582863585119</v>
+      </c>
+      <c r="G34">
+        <f>$C$27/C34</f>
+        <v>3.5000000000000004</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="9"/>
+        <v>0.70069343654249316</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>85.1</v>
+      </c>
+      <c r="D37">
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>64.28</v>
+      </c>
+      <c r="D38">
+        <v>63.36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>53.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>34.49</v>
+      </c>
+      <c r="D40">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>25.25</v>
+      </c>
+      <c r="D44">
+        <v>22.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>23.64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>21.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52">
+        <v>15.57</v>
+      </c>
+      <c r="D52">
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>119.36</v>
+      </c>
+      <c r="C56">
+        <v>109.49</v>
+      </c>
+      <c r="D56">
+        <v>36.85</v>
+      </c>
+      <c r="E56">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10.32</v>
+      </c>
+      <c r="C57">
+        <v>8.98</v>
+      </c>
+      <c r="D57">
+        <v>4.47</v>
+      </c>
+      <c r="E57">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>129.96</v>
+      </c>
+      <c r="C58">
+        <v>118.87</v>
+      </c>
+      <c r="D58">
+        <v>41.33</v>
+      </c>
+      <c r="E58">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <f>B58-B57-B56</f>
+        <v>0.28000000000001535</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ref="C59:E59" si="10">C58-C57-C56</f>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="10"/>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="10"/>
+        <v>-7.9999999999998295E-2</v>
       </c>
     </row>
   </sheetData>
@@ -796,4 +1580,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/paper/Workbook1.xlsx
+++ b/paper/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-24000" yWindow="80" windowWidth="24000" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,8 +200,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,7 +284,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="79">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -321,6 +323,7 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -359,6 +362,7 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -688,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="R23" sqref="M18:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -997,15 +1001,73 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="18" spans="1:18">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="M19">
+        <v>0.84147099999999997</v>
+      </c>
+      <c r="N19">
+        <v>0.84147099999999997</v>
+      </c>
+      <c r="O19">
+        <v>0.84147099999999997</v>
+      </c>
+      <c r="P19">
+        <v>0.84147099999999997</v>
+      </c>
+      <c r="Q19">
+        <v>0.84147099999999997</v>
+      </c>
+      <c r="R19">
+        <v>0.84147099999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="M20">
+        <v>0.90929700000000002</v>
+      </c>
+      <c r="N20">
+        <v>0.90929700000000002</v>
+      </c>
+      <c r="O20">
+        <v>0.90929700000000002</v>
+      </c>
+      <c r="P20">
+        <v>0.90929700000000002</v>
+      </c>
+      <c r="Q20">
+        <v>0.90929700000000002</v>
+      </c>
+      <c r="R20">
+        <v>0.90929700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1018,8 +1080,26 @@
       <c r="D21">
         <v>117.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="M21">
+        <v>0.14112</v>
+      </c>
+      <c r="N21">
+        <v>0.14112</v>
+      </c>
+      <c r="O21">
+        <v>0.14112</v>
+      </c>
+      <c r="P21">
+        <v>0.14112</v>
+      </c>
+      <c r="Q21">
+        <v>0.14112</v>
+      </c>
+      <c r="R21">
+        <v>0.14112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1047,8 +1127,26 @@
       <c r="I22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="M22">
+        <v>-0.75680199999999997</v>
+      </c>
+      <c r="N22">
+        <v>-0.75680199999999997</v>
+      </c>
+      <c r="O22">
+        <v>-0.75680199999999997</v>
+      </c>
+      <c r="P22">
+        <v>-0.75680199999999997</v>
+      </c>
+      <c r="Q22">
+        <v>-0.75680199999999997</v>
+      </c>
+      <c r="R22">
+        <v>-0.75680199999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1076,8 +1174,26 @@
       <c r="I23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="M23">
+        <v>-0.958924</v>
+      </c>
+      <c r="N23">
+        <v>-0.958924</v>
+      </c>
+      <c r="O23">
+        <v>-0.958924</v>
+      </c>
+      <c r="P23">
+        <v>-0.958924</v>
+      </c>
+      <c r="Q23">
+        <v>-0.958924</v>
+      </c>
+      <c r="R23">
+        <v>-0.958924</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1244,7 @@
         <v>86.9</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1142,11 +1258,11 @@
         <v>93.46</v>
       </c>
       <c r="F28">
-        <f>$B$27/B28</f>
+        <f t="shared" ref="F28:F34" si="9">$B$27/B28</f>
         <v>1.4668133480014669</v>
       </c>
       <c r="G28">
-        <f>$C$27/C28</f>
+        <f t="shared" ref="G28:G34" si="10">$C$27/C28</f>
         <v>1.3825363825363828</v>
       </c>
       <c r="H28">
@@ -1157,7 +1273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1171,22 +1287,22 @@
         <v>97.68</v>
       </c>
       <c r="F29">
-        <f>$B$27/B29</f>
+        <f t="shared" si="9"/>
         <v>1.7559262510974538</v>
       </c>
       <c r="G29">
-        <f>$C$27/C29</f>
+        <f t="shared" si="10"/>
         <v>1.6419753086419755</v>
       </c>
       <c r="H29">
-        <f t="shared" ref="H29:H34" si="9">$D$27/D29</f>
+        <f t="shared" ref="H29:H34" si="11">$D$27/D29</f>
         <v>0.88963963963963966</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1200,22 +1316,22 @@
         <v>104.65</v>
       </c>
       <c r="F30">
-        <f>$B$27/B30</f>
+        <f t="shared" si="9"/>
         <v>2.5673940949935816</v>
       </c>
       <c r="G30">
-        <f>$C$27/C30</f>
+        <f t="shared" si="10"/>
         <v>2.3835125448028673</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.83038700430004775</v>
       </c>
       <c r="I30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1229,22 +1345,22 @@
         <v>107.3</v>
       </c>
       <c r="F31">
-        <f>$B$27/B31</f>
+        <f t="shared" si="9"/>
         <v>2.8089887640449436</v>
       </c>
       <c r="G31">
-        <f>$C$27/C31</f>
+        <f t="shared" si="10"/>
         <v>2.5775193798449614</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.80987884436160307</v>
       </c>
       <c r="I31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1258,15 +1374,15 @@
         <v>114.56</v>
       </c>
       <c r="F32">
-        <f>$B$27/B32</f>
+        <f t="shared" si="9"/>
         <v>3.3528918692372174</v>
       </c>
       <c r="G32">
-        <f>$C$27/C32</f>
+        <f t="shared" si="10"/>
         <v>2.9424778761061949</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.75855446927374304</v>
       </c>
       <c r="I32">
@@ -1287,15 +1403,15 @@
         <v>113.44</v>
       </c>
       <c r="F33">
-        <f>$B$27/B33</f>
+        <f t="shared" si="9"/>
         <v>3.6596523330283626</v>
       </c>
       <c r="G33">
-        <f>$C$27/C33</f>
+        <f t="shared" si="10"/>
         <v>3.3250000000000002</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.76604372355430195</v>
       </c>
       <c r="I33">
@@ -1316,15 +1432,15 @@
         <v>124.02</v>
       </c>
       <c r="F34">
-        <f>$B$27/B34</f>
+        <f t="shared" si="9"/>
         <v>4.509582863585119</v>
       </c>
       <c r="G34">
-        <f>$C$27/C34</f>
+        <f t="shared" si="10"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.70069343654249316</v>
       </c>
       <c r="I34">
@@ -1559,15 +1675,15 @@
         <v>0.28000000000001535</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:E59" si="10">C58-C57-C56</f>
+        <f t="shared" ref="C59:E59" si="12">C58-C57-C56</f>
         <v>0.40000000000000568</v>
       </c>
       <c r="D59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999980105E-3</v>
       </c>
       <c r="E59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-7.9999999999998295E-2</v>
       </c>
     </row>
